--- a/dtpu_configurations/only_integer16/50mhz/mxu_3x3/power.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_3x3/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.01615050807595253</v>
+        <v>0.020126409828662872</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.009724335744976997</v>
+        <v>0.00830205250531435</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.006574301049113274</v>
+        <v>0.0065217469818890095</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0032813120633363724</v>
+        <v>0.003844057209789753</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.994259375554975E-6</v>
+        <v>5.1219753913755994E-6</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0010700530838221312</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12523117661476135</v>
+        <v>0.12627831101417542</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4218345880508423</v>
+        <v>1.425947666168213</v>
       </c>
     </row>
   </sheetData>
